--- a/exercises/ex070.ESP.xlsx
+++ b/exercises/ex070.ESP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8895DC09-2C1E-4A6D-BFA5-5EA41346C63B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BBE3C5-2C96-4F87-831E-02C53F6D12C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="930" windowWidth="28800" windowHeight="17400" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="1380" windowWidth="31020" windowHeight="18120" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="110" r:id="rId1"/>
@@ -66,7 +66,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1219,64 +1221,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,67 +1290,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2177.7038598350264</c:v>
+                  <c:v>1982.9463492467667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2155.0796090898484</c:v>
+                  <c:v>1957.0064939051942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2153.4436231720601</c:v>
+                  <c:v>1960.9435923638921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2164.5150132826443</c:v>
+                  <c:v>1981.4562801439863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2178.2139599650986</c:v>
+                  <c:v>2005.9740766341761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2186.1582001833112</c:v>
+                  <c:v>2024.9064355198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2181.5694293950837</c:v>
+                  <c:v>2031.2780891910111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2159.1797036256626</c:v>
+                  <c:v>2020.3643931509514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2115.1378415412596</c:v>
+                  <c:v>1989.3266704239254</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2046.9158265225844</c:v>
+                  <c:v>1936.8475559635747</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1953.2152087383711</c:v>
+                  <c:v>1862.7663410610517</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1833.8735072188988</c:v>
+                  <c:v>1767.7143177531982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1689.7706119295246</c:v>
+                  <c:v>1652.7501232307104</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1522.7351858442096</c:v>
+                  <c:v>1518.9950842463231</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1335.4510670190416</c:v>
+                  <c:v>1367.2685615229796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1131.3636706657694</c:v>
+                  <c:v>1197.723294162008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>914.58639122531849</c:v>
+                  <c:v>1009.480744051288</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>689.80700444132776</c:v>
+                  <c:v>800.26644027343752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>462.19406943367369</c:v>
+                  <c:v>566.0453235139787</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>237.30333077199134</c:v>
+                  <c:v>300.65709046950894</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.984120549215934</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,64 +1424,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,67 +1493,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.02094510249169E-2</c:v>
+                  <c:v>5.2718053435386845E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4948597208333356E-2</c:v>
+                  <c:v>9.7143682422721048E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14770494788119301</c:v>
+                  <c:v>0.18672175849769534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22007074560149578</c:v>
+                  <c:v>0.26722161174998837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28974697934124621</c:v>
+                  <c:v>0.33760784545433942</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35456296862333708</c:v>
+                  <c:v>0.39725271325269551</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41250634910674744</c:v>
+                  <c:v>0.44586520719926198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46175305817174056</c:v>
+                  <c:v>0.48342014580555509</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5006973205050621</c:v>
+                  <c:v>0.5100872620854523</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52798163368513795</c:v>
+                  <c:v>0.52616029160024458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54252675376727288</c:v>
+                  <c:v>0.53198606050368746</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.54356168086884704</c:v>
+                  <c:v>0.52789357358705213</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53065364475451593</c:v>
+                  <c:v>0.51412310232417835</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50373809042140771</c:v>
+                  <c:v>0.49075527291652421</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46314866368431995</c:v>
+                  <c:v>0.45764015433821842</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4096471967609201</c:v>
+                  <c:v>0.41432634638111182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34445369385694047</c:v>
+                  <c:v>0.35999006769982811</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26927631675138031</c:v>
+                  <c:v>0.29336424385681648</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18634137038169934</c:v>
+                  <c:v>0.21266759536740198</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.8423288429019706E-2</c:v>
+                  <c:v>0.11553372574483833</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.8746189033200862E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,64 +2139,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,67 +2208,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2177.7038598350264</c:v>
+                  <c:v>1982.9463492467667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2155.0796090898484</c:v>
+                  <c:v>1957.0064939051942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2153.4436231720601</c:v>
+                  <c:v>1960.9435923638921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2164.5150132826443</c:v>
+                  <c:v>1981.4562801439863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2178.2139599650986</c:v>
+                  <c:v>2005.9740766341761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2186.1582001833112</c:v>
+                  <c:v>2024.9064355198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2181.5694293950837</c:v>
+                  <c:v>2031.2780891910111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2159.1797036256626</c:v>
+                  <c:v>2020.3643931509514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2115.1378415412596</c:v>
+                  <c:v>1989.3266704239254</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2046.9158265225844</c:v>
+                  <c:v>1936.8475559635747</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1953.2152087383711</c:v>
+                  <c:v>1862.7663410610517</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1833.8735072188988</c:v>
+                  <c:v>1767.7143177531982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1689.7706119295246</c:v>
+                  <c:v>1652.7501232307104</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1522.7351858442096</c:v>
+                  <c:v>1518.9950842463231</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1335.4510670190416</c:v>
+                  <c:v>1367.2685615229796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1131.3636706657694</c:v>
+                  <c:v>1197.723294162008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>914.58639122531849</c:v>
+                  <c:v>1009.480744051288</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>689.80700444132776</c:v>
+                  <c:v>800.26644027343752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>462.19406943367369</c:v>
+                  <c:v>566.0453235139787</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>237.30333077199134</c:v>
+                  <c:v>300.65709046950894</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.984120549215934</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,64 +2342,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,67 +2411,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>34489.160642996467</c:v>
+                  <c:v>40132.458058047268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35543.191344898885</c:v>
+                  <c:v>42203.511280989362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36837.222463369806</c:v>
+                  <c:v>44904.308034678448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38177.816369012093</c:v>
+                  <c:v>48027.734487828398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39502.006083603352</c:v>
+                  <c:v>51476.945783488867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40780.061560281414</c:v>
+                  <c:v>55165.821933100378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42008.326331975681</c:v>
+                  <c:v>59018.52810186689</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43202.054159838532</c:v>
+                  <c:v>62969.074894128375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44388.245681676708</c:v>
+                  <c:v>66960.878638733309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45598.485060382707</c:v>
+                  <c:v>70946.321674411302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46861.776632366156</c:v>
+                  <c:v>74886.312635145558</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48197.381555985216</c:v>
+                  <c:v>78749.846735545521</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49607.654459978017</c:v>
+                  <c:v>82513.566056219293</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51070.880091893952</c:v>
+                  <c:v>86161.319829146378</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52534.109966525131</c:v>
+                  <c:v>89683.724723050022</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53905.999014337751</c:v>
+                  <c:v>93077.725128769918</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55049.642229903497</c:v>
+                  <c:v>96346.153444634736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>55775.411320330881</c:v>
+                  <c:v>99497.290361834501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55833.791353696841</c:v>
+                  <c:v>102544.42514979342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54908.217407477758</c:v>
+                  <c:v>105505.41594154228</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52607.911216981076</c:v>
+                  <c:v>108402.25001909083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,64 +3045,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,31 +3114,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>92.158815415853496</c:v>
+                  <c:v>77.969308742246682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144.44822794241153</c:v>
+                  <c:v>129.74486214102967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.2152089137407</c:v>
+                  <c:v>134.11156223658077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.53442935936474</c:v>
+                  <c:v>137.09481020511367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151.86480622847776</c:v>
+                  <c:v>138.18162940123074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.12891099264306</c:v>
+                  <c:v>136.29759537064527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>141.61663407118482</c:v>
+                  <c:v>130.1286293390865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125.96224353585833</c:v>
+                  <c:v>116.93588873820266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.634642466785294</c:v>
+                  <c:v>81.186572087555902</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3246,64 +3248,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3318,28 +3320,28 @@
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.321664999510404</c:v>
+                  <c:v>59.792336519820282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.828433680022485</c:v>
+                  <c:v>29.201071161251761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.323782378181193</c:v>
+                  <c:v>18.89850607729943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.390096268582468</c:v>
+                  <c:v>13.803897561569897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.629339492085819</c:v>
+                  <c:v>10.874322577275663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.60684269886778</c:v>
+                  <c:v>9.1256312815988707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.776136470432661</c:v>
+                  <c:v>8.1990032746672057</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0281717200926863</c:v>
+                  <c:v>8.3062617324325458</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3816,64 +3818,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3885,31 +3887,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>92.158815415853496</c:v>
+                  <c:v>77.969308742246682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144.44822794241153</c:v>
+                  <c:v>129.74486214102967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.2152089137407</c:v>
+                  <c:v>134.11156223658077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.53442935936474</c:v>
+                  <c:v>137.09481020511367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151.86480622847776</c:v>
+                  <c:v>138.18162940123074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.12891099264306</c:v>
+                  <c:v>136.29759537064527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>141.61663407118482</c:v>
+                  <c:v>130.1286293390865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125.96224353585833</c:v>
+                  <c:v>116.93588873820266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.634642466785294</c:v>
+                  <c:v>81.186572087555902</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3981,64 +3983,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4431,64 +4433,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.5</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.5</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.5</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172.5</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.5</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218.5</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,58 +4502,58 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>19.63524793883451</c:v>
+                  <c:v>25.280686792751496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.101770826480021</c:v>
+                  <c:v>25.927264632644153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.888052109725862</c:v>
+                  <c:v>25.20692923795751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.3849755135154</c:v>
+                  <c:v>24.77767234637858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.102114703471187</c:v>
+                  <c:v>25.473628750159179</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.815318212618067</c:v>
+                  <c:v>27.314354842631147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.212675462192436</c:v>
+                  <c:v>30.044572389859965</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.105404323559398</c:v>
+                  <c:v>33.433963230656957</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.392865979782812</c:v>
+                  <c:v>37.342557603400138</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.055850151254191</c:v>
+                  <c:v>41.68911535508488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.118936251922833</c:v>
+                  <c:v>46.466389569008655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.677661266006311</c:v>
+                  <c:v>51.726347114453191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.959432061843984</c:v>
+                  <c:v>57.611791650357162</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.510471412829901</c:v>
+                  <c:v>64.491639023690439</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.037946397137489</c:v>
+                  <c:v>73.256331851365701</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93.933556515037949</c:v>
+                  <c:v>87.051234515836015</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.74678653187701</c:v>
+                  <c:v>107.55113194555614</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133.40052321462497</c:v>
+                  <c:v>131.22579360166841</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>150</c:v>
@@ -6264,7 +6266,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
@@ -6283,7 +6284,6 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6877,8 +6877,8 @@
   </sheetPr>
   <dimension ref="A1:AK184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.11</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7058,14 +7058,14 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>50</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>51</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>52</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>53</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>54</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>55</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>56</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>57</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>59</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>62</v>
       </c>
@@ -7185,8 +7185,11 @@
       <c r="D28" s="18" t="s">
         <v>1</v>
       </c>
+      <c r="H28">
+        <v>12912</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
         <v>60</v>
       </c>
@@ -7196,8 +7199,12 @@
       <c r="D29" s="18" t="s">
         <v>1</v>
       </c>
+      <c r="H29">
+        <f>80*230</f>
+        <v>18400</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
         <v>61</v>
       </c>
@@ -7208,7 +7215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
         <v>64</v>
       </c>
@@ -7229,7 +7236,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="2">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>5</v>
@@ -7263,7 +7270,7 @@
       </c>
       <c r="C37" s="13">
         <f>[1]!ESP_id_by_rate(Q_ESP_)</f>
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="D37" s="18"/>
       <c r="G37" s="19" t="s">
@@ -7276,12 +7283,12 @@
       </c>
       <c r="C38" s="13" t="str">
         <f>[1]!ESP_name(C37)</f>
-        <v>ВНН5-125</v>
+        <v>ЭЦН5А-199</v>
       </c>
       <c r="D38" s="18"/>
       <c r="G38" s="10" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.900;p_ksep_atma:80.000;t_ksep_C:80.000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.800;p_ksep_atma:80.000;t_ksep_C:80.000;gas_only:False;</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
@@ -7309,7 +7316,7 @@
       </c>
       <c r="C39" s="13">
         <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="D39" s="18"/>
     </row>
@@ -7319,7 +7326,7 @@
       </c>
       <c r="C40" s="13">
         <f>INT(Head_ESP_/[1]!ESP_head_m(Q_ESP_,1,,PumpID_))</f>
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>8</v>
@@ -7333,12 +7340,12 @@
         <v>71</v>
       </c>
       <c r="C41" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D41" s="18"/>
       <c r="G41" s="10" t="str">
         <f>[1]!ESP_encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;t_intake_C:85.00000;t_dis_C:85.00000;KsepGS_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_h_mes_m:0.00000;ESP_gas_degradation_type:0;c_calibr_head:0.00000;c_calibr_rate:0.00000;c_calibr_power:0.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
+        <v>ESP_ID:748.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;t_intake_C:85.00000;t_dis_C:85.00000;KsepGS_fr:0.00000;Ksep_manual_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_h_mes_m:0.00000;ESP_gas_degradation_type:0;c_calibr_head:1.00000;c_calibr_rate:1.00000;c_calibr_power:1.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
@@ -7464,7 +7471,7 @@
       </c>
       <c r="D51" s="30">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,fw_,PVTstr)</f>
-        <v>0.54220137131326573</v>
+        <v>0.55221010898619027</v>
       </c>
       <c r="E51" s="26"/>
       <c r="J51" s="19" t="s">
@@ -7525,375 +7532,375 @@
       </c>
       <c r="D54" s="16">
         <f>[1]!ESP_head_m(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2177.7038598350264</v>
+        <v>1982.9463492467667</v>
       </c>
       <c r="E54" s="23">
         <f>[1]!ESP_eff_fr(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1.02094510249169E-2</v>
+        <v>5.2718053435386845E-3</v>
       </c>
       <c r="F54" s="16">
         <f>[1]!ESP_power_W(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>34489.160642996467</v>
+        <v>40132.458058047268</v>
       </c>
       <c r="G54" s="23">
         <f t="array" ref="G54:H54">[1]!ESP_dp_atm(C54,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>92.158815415853496</v>
+        <v>77.969308742246682</v>
       </c>
       <c r="H54" s="23">
         <v>219</v>
       </c>
       <c r="I54" s="24">
         <f t="shared" ref="I54" si="0">G54+Pintake_</f>
-        <v>126.1588154158535</v>
+        <v>111.96930874224668</v>
       </c>
       <c r="J54" s="24">
         <f t="array" ref="J54:K54">[1]!ESP_dp_atm(C54,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>130.36475206116549</v>
+        <v>124.7193132072485</v>
       </c>
       <c r="K54" s="24">
         <v>0</v>
       </c>
       <c r="L54" s="24">
         <f t="shared" ref="L54" si="1">Pdis-J54</f>
-        <v>19.63524793883451</v>
+        <v>25.280686792751496</v>
       </c>
     </row>
     <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="6">
         <f>B95+Qmax/20</f>
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="D55" s="16">
         <f>[1]!ESP_head_m(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2155.0796090898484</v>
+        <v>1957.0064939051942</v>
       </c>
       <c r="E55" s="23">
         <f>[1]!ESP_eff_fr(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>7.4948597208333356E-2</v>
+        <v>9.7143682422721048E-2</v>
       </c>
       <c r="F55" s="16">
         <f>[1]!ESP_power_W(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>35543.191344898885</v>
+        <v>42203.511280989362</v>
       </c>
       <c r="G55" s="23">
         <f t="array" ref="G55:H55">[1]!ESP_dp_atm(C55,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>144.44822794241153</v>
+        <v>129.74486214102967</v>
       </c>
       <c r="H55" s="23">
-        <v>86.321664999510404</v>
+        <v>59.792336519820282</v>
       </c>
       <c r="I55" s="24">
         <f t="shared" ref="I55:I74" si="2">G55+Pintake_</f>
-        <v>178.44822794241153</v>
+        <v>163.74486214102967</v>
       </c>
       <c r="J55" s="24">
         <f t="array" ref="J55:K55">[1]!ESP_dp_atm(C55,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>129.89822917351998</v>
+        <v>124.07273536735585</v>
       </c>
       <c r="K55" s="24">
         <v>0</v>
       </c>
       <c r="L55" s="24">
         <f t="shared" ref="L55:L74" si="3">Pdis-J55</f>
-        <v>20.101770826480021</v>
+        <v>25.927264632644153</v>
       </c>
     </row>
     <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="6">
         <f t="shared" ref="C56:C74" si="4">C55+Qmax/20</f>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D56" s="16">
         <f>[1]!ESP_head_m(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2153.4436231720601</v>
+        <v>1960.9435923638921</v>
       </c>
       <c r="E56" s="23">
         <f>[1]!ESP_eff_fr(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.14770494788119301</v>
+        <v>0.18672175849769534</v>
       </c>
       <c r="F56" s="16">
         <f>[1]!ESP_power_W(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>36837.222463369806</v>
+        <v>44904.308034678448</v>
       </c>
       <c r="G56" s="23">
         <f t="array" ref="G56:H56">[1]!ESP_dp_atm(C56,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>149.2152089137407</v>
+        <v>134.11156223658077</v>
       </c>
       <c r="H56" s="23">
-        <v>41.828433680022485</v>
+        <v>29.201071161251761</v>
       </c>
       <c r="I56" s="24">
         <f t="shared" si="2"/>
-        <v>183.2152089137407</v>
+        <v>168.11156223658077</v>
       </c>
       <c r="J56" s="24">
         <f t="array" ref="J56:K56">[1]!ESP_dp_atm(C56,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>130.11194789027414</v>
+        <v>124.79307076204249</v>
       </c>
       <c r="K56" s="24">
         <v>0</v>
       </c>
       <c r="L56" s="24">
         <f t="shared" si="3"/>
-        <v>19.888052109725862</v>
+        <v>25.20692923795751</v>
       </c>
     </row>
     <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="6">
         <f t="shared" si="4"/>
-        <v>34.5</v>
+        <v>57</v>
       </c>
       <c r="D57" s="16">
         <f>[1]!ESP_head_m(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2164.5150132826443</v>
+        <v>1981.4562801439863</v>
       </c>
       <c r="E57" s="23">
         <f>[1]!ESP_eff_fr(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.22007074560149578</v>
+        <v>0.26722161174998837</v>
       </c>
       <c r="F57" s="16">
         <f>[1]!ESP_power_W(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>38177.816369012093</v>
+        <v>48027.734487828398</v>
       </c>
       <c r="G57" s="23">
         <f t="array" ref="G57:H57">[1]!ESP_dp_atm(C57,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>151.53442935936474</v>
+        <v>137.09481020511367</v>
       </c>
       <c r="H57" s="23">
-        <v>26.323782378181193</v>
+        <v>18.89850607729943</v>
       </c>
       <c r="I57" s="24">
         <f t="shared" si="2"/>
-        <v>185.53442935936474</v>
+        <v>171.09481020511367</v>
       </c>
       <c r="J57" s="24">
         <f t="array" ref="J57:K57">[1]!ESP_dp_atm(C57,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>129.6150244864846</v>
+        <v>125.22232765362142</v>
       </c>
       <c r="K57" s="24">
         <v>0</v>
       </c>
       <c r="L57" s="24">
         <f t="shared" si="3"/>
-        <v>20.3849755135154</v>
+        <v>24.77767234637858</v>
       </c>
     </row>
     <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C58" s="6">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D58" s="16">
         <f>[1]!ESP_head_m(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2178.2139599650986</v>
+        <v>2005.9740766341761</v>
       </c>
       <c r="E58" s="23">
         <f>[1]!ESP_eff_fr(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.28974697934124621</v>
+        <v>0.33760784545433942</v>
       </c>
       <c r="F58" s="16">
         <f>[1]!ESP_power_W(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>39502.006083603352</v>
+        <v>51476.945783488867</v>
       </c>
       <c r="G58" s="23">
         <f t="array" ref="G58:H58">[1]!ESP_dp_atm(C58,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>151.86480622847776</v>
+        <v>138.18162940123074</v>
       </c>
       <c r="H58" s="23">
-        <v>18.390096268582468</v>
+        <v>13.803897561569897</v>
       </c>
       <c r="I58" s="24">
         <f t="shared" si="2"/>
-        <v>185.86480622847776</v>
+        <v>172.18162940123074</v>
       </c>
       <c r="J58" s="24">
         <f t="array" ref="J58:K58">[1]!ESP_dp_atm(C58,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>127.89788529652881</v>
+        <v>124.52637124984082</v>
       </c>
       <c r="K58" s="24">
         <v>0</v>
       </c>
       <c r="L58" s="24">
         <f t="shared" si="3"/>
-        <v>22.102114703471187</v>
+        <v>25.473628750159179</v>
       </c>
     </row>
     <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="6">
         <f t="shared" si="4"/>
-        <v>57.5</v>
+        <v>95</v>
       </c>
       <c r="D59" s="16">
         <f>[1]!ESP_head_m(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2186.1582001833112</v>
+        <v>2024.9064355198</v>
       </c>
       <c r="E59" s="23">
         <f>[1]!ESP_eff_fr(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.35456296862333708</v>
+        <v>0.39725271325269551</v>
       </c>
       <c r="F59" s="16">
         <f>[1]!ESP_power_W(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>40780.061560281414</v>
+        <v>55165.821933100378</v>
       </c>
       <c r="G59" s="23">
         <f t="array" ref="G59:H59">[1]!ESP_dp_atm(C59,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>149.12891099264306</v>
+        <v>136.29759537064527</v>
       </c>
       <c r="H59" s="23">
-        <v>13.629339492085819</v>
+        <v>10.874322577275663</v>
       </c>
       <c r="I59" s="24">
         <f t="shared" si="2"/>
-        <v>183.12891099264306</v>
+        <v>170.29759537064527</v>
       </c>
       <c r="J59" s="24">
         <f t="array" ref="J59:K59">[1]!ESP_dp_atm(C59,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>125.18468178738193</v>
+        <v>122.68564515736885</v>
       </c>
       <c r="K59" s="24">
         <v>0</v>
       </c>
       <c r="L59" s="24">
         <f t="shared" si="3"/>
-        <v>24.815318212618067</v>
+        <v>27.314354842631147</v>
       </c>
     </row>
     <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="6">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="D60" s="16">
         <f>[1]!ESP_head_m(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2181.5694293950837</v>
+        <v>2031.2780891910111</v>
       </c>
       <c r="E60" s="23">
         <f>[1]!ESP_eff_fr(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.41250634910674744</v>
+        <v>0.44586520719926198</v>
       </c>
       <c r="F60" s="16">
         <f>[1]!ESP_power_W(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>42008.326331975681</v>
+        <v>59018.52810186689</v>
       </c>
       <c r="G60" s="23">
         <f t="array" ref="G60:H60">[1]!ESP_dp_atm(C60,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>141.61663407118482</v>
+        <v>130.1286293390865</v>
       </c>
       <c r="H60" s="23">
-        <v>10.60684269886778</v>
+        <v>9.1256312815988707</v>
       </c>
       <c r="I60" s="24">
         <f t="shared" si="2"/>
-        <v>175.61663407118482</v>
+        <v>164.1286293390865</v>
       </c>
       <c r="J60" s="24">
         <f t="array" ref="J60:K60">[1]!ESP_dp_atm(C60,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>121.78732453780756</v>
+        <v>119.95542761014003</v>
       </c>
       <c r="K60" s="24">
         <v>0</v>
       </c>
       <c r="L60" s="24">
         <f t="shared" si="3"/>
-        <v>28.212675462192436</v>
+        <v>30.044572389859965</v>
       </c>
     </row>
     <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="6">
         <f t="shared" si="4"/>
-        <v>80.5</v>
+        <v>133</v>
       </c>
       <c r="D61" s="16">
         <f>[1]!ESP_head_m(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2159.1797036256626</v>
+        <v>2020.3643931509514</v>
       </c>
       <c r="E61" s="23">
         <f>[1]!ESP_eff_fr(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.46175305817174056</v>
+        <v>0.48342014580555509</v>
       </c>
       <c r="F61" s="16">
         <f>[1]!ESP_power_W(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>43202.054159838532</v>
+        <v>62969.074894128375</v>
       </c>
       <c r="G61" s="23">
         <f t="array" ref="G61:H61">[1]!ESP_dp_atm(C61,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>125.96224353585833</v>
+        <v>116.93588873820266</v>
       </c>
       <c r="H61" s="23">
-        <v>8.776136470432661</v>
+        <v>8.1990032746672057</v>
       </c>
       <c r="I61" s="24">
         <f t="shared" si="2"/>
-        <v>159.96224353585833</v>
+        <v>150.93588873820266</v>
       </c>
       <c r="J61" s="24">
         <f t="array" ref="J61:K61">[1]!ESP_dp_atm(C61,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>117.8945956764406</v>
+        <v>116.56603676934304</v>
       </c>
       <c r="K61" s="24">
         <v>0</v>
       </c>
       <c r="L61" s="24">
         <f t="shared" si="3"/>
-        <v>32.105404323559398</v>
+        <v>33.433963230656957</v>
       </c>
     </row>
     <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="6">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="D62" s="16">
         <f>[1]!ESP_head_m(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2115.1378415412596</v>
+        <v>1989.3266704239254</v>
       </c>
       <c r="E62" s="23">
         <f>[1]!ESP_eff_fr(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.5006973205050621</v>
+        <v>0.5100872620854523</v>
       </c>
       <c r="F62" s="16">
         <f>[1]!ESP_power_W(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>44388.245681676708</v>
+        <v>66960.878638733309</v>
       </c>
       <c r="G62" s="23">
         <f t="array" ref="G62:H62">[1]!ESP_dp_atm(C62,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>87.634642466785294</v>
+        <v>81.186572087555902</v>
       </c>
       <c r="H62" s="23">
-        <v>8.0281717200926863</v>
+        <v>8.3062617324325458</v>
       </c>
       <c r="I62" s="24">
         <f t="shared" si="2"/>
-        <v>121.63464246678529</v>
+        <v>115.1865720875559</v>
       </c>
       <c r="J62" s="24">
         <f t="array" ref="J62:K62">[1]!ESP_dp_atm(C62,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>113.60713402021719</v>
+        <v>112.65744239659986</v>
       </c>
       <c r="K62" s="24">
         <v>0</v>
       </c>
       <c r="L62" s="24">
         <f t="shared" si="3"/>
-        <v>36.392865979782812</v>
+        <v>37.342557603400138</v>
       </c>
     </row>
     <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C63" s="6">
         <f t="shared" si="4"/>
-        <v>103.5</v>
+        <v>171</v>
       </c>
       <c r="D63" s="16">
         <f>[1]!ESP_head_m(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2046.9158265225844</v>
+        <v>1936.8475559635747</v>
       </c>
       <c r="E63" s="23">
         <f>[1]!ESP_eff_fr(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.52798163368513795</v>
+        <v>0.52616029160024458</v>
       </c>
       <c r="F63" s="16">
         <f>[1]!ESP_power_W(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>45598.485060382707</v>
+        <v>70946.321674411302</v>
       </c>
       <c r="G63" s="23">
         <f t="array" ref="G63:H63">[1]!ESP_dp_atm(C63,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -7908,32 +7915,32 @@
       </c>
       <c r="J63" s="24">
         <f t="array" ref="J63:K63">[1]!ESP_dp_atm(C63,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>108.94414984874581</v>
+        <v>108.31088464491512</v>
       </c>
       <c r="K63" s="24">
         <v>0</v>
       </c>
       <c r="L63" s="24">
         <f t="shared" si="3"/>
-        <v>41.055850151254191</v>
+        <v>41.68911535508488</v>
       </c>
     </row>
     <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="6">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="D64" s="16">
         <f>[1]!ESP_head_m(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1953.2152087383711</v>
+        <v>1862.7663410610517</v>
       </c>
       <c r="E64" s="23">
         <f>[1]!ESP_eff_fr(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.54252675376727288</v>
+        <v>0.53198606050368746</v>
       </c>
       <c r="F64" s="16">
         <f>[1]!ESP_power_W(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>46861.776632366156</v>
+        <v>74886.312635145558</v>
       </c>
       <c r="G64" s="23">
         <f t="array" ref="G64:H64">[1]!ESP_dp_atm(C64,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -7948,32 +7955,32 @@
       </c>
       <c r="J64" s="24">
         <f t="array" ref="J64:K64">[1]!ESP_dp_atm(C64,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>103.88106374807717</v>
+        <v>103.53361043099135</v>
       </c>
       <c r="K64" s="24">
         <v>0</v>
       </c>
       <c r="L64" s="24">
         <f t="shared" si="3"/>
-        <v>46.118936251922833</v>
+        <v>46.466389569008655</v>
       </c>
     </row>
     <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="6">
         <f t="shared" si="4"/>
-        <v>126.5</v>
+        <v>209</v>
       </c>
       <c r="D65" s="16">
         <f>[1]!ESP_head_m(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1833.8735072188988</v>
+        <v>1767.7143177531982</v>
       </c>
       <c r="E65" s="23">
         <f>[1]!ESP_eff_fr(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.54356168086884704</v>
+        <v>0.52789357358705213</v>
       </c>
       <c r="F65" s="16">
         <f>[1]!ESP_power_W(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>48197.381555985216</v>
+        <v>78749.846735545521</v>
       </c>
       <c r="G65" s="23">
         <f t="array" ref="G65:H65">[1]!ESP_dp_atm(C65,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -7988,32 +7995,32 @@
       </c>
       <c r="J65" s="24">
         <f t="array" ref="J65:K65">[1]!ESP_dp_atm(C65,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>98.322338733993689</v>
+        <v>98.273652885546809</v>
       </c>
       <c r="K65" s="24">
         <v>0</v>
       </c>
       <c r="L65" s="24">
         <f t="shared" si="3"/>
-        <v>51.677661266006311</v>
+        <v>51.726347114453191</v>
       </c>
     </row>
     <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="6">
         <f t="shared" si="4"/>
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="D66" s="16">
         <f>[1]!ESP_head_m(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1689.7706119295246</v>
+        <v>1652.7501232307104</v>
       </c>
       <c r="E66" s="23">
         <f>[1]!ESP_eff_fr(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.53065364475451593</v>
+        <v>0.51412310232417835</v>
       </c>
       <c r="F66" s="16">
         <f>[1]!ESP_power_W(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>49607.654459978017</v>
+        <v>82513.566056219293</v>
       </c>
       <c r="G66" s="23">
         <f t="array" ref="G66:H66">[1]!ESP_dp_atm(C66,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8028,32 +8035,32 @@
       </c>
       <c r="J66" s="24">
         <f t="array" ref="J66:K66">[1]!ESP_dp_atm(C66,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>92.040567938156016</v>
+        <v>92.388208349642838</v>
       </c>
       <c r="K66" s="24">
         <v>0</v>
       </c>
       <c r="L66" s="24">
         <f t="shared" si="3"/>
-        <v>57.959432061843984</v>
+        <v>57.611791650357162</v>
       </c>
     </row>
     <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="6">
         <f t="shared" si="4"/>
-        <v>149.5</v>
+        <v>247</v>
       </c>
       <c r="D67" s="16">
         <f>[1]!ESP_head_m(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1522.7351858442096</v>
+        <v>1518.9950842463231</v>
       </c>
       <c r="E67" s="23">
         <f>[1]!ESP_eff_fr(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.50373809042140771</v>
+        <v>0.49075527291652421</v>
       </c>
       <c r="F67" s="16">
         <f>[1]!ESP_power_W(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>51070.880091893952</v>
+        <v>86161.319829146378</v>
       </c>
       <c r="G67" s="23">
         <f t="array" ref="G67:H67">[1]!ESP_dp_atm(C67,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8068,32 +8075,32 @@
       </c>
       <c r="J67" s="24">
         <f t="array" ref="J67:K67">[1]!ESP_dp_atm(C67,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>84.489528587170099</v>
+        <v>85.508360976309561</v>
       </c>
       <c r="K67" s="24">
         <v>0</v>
       </c>
       <c r="L67" s="24">
         <f t="shared" si="3"/>
-        <v>65.510471412829901</v>
+        <v>64.491639023690439</v>
       </c>
     </row>
     <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C68" s="6">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="D68" s="16">
         <f>[1]!ESP_head_m(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1335.4510670190416</v>
+        <v>1367.2685615229796</v>
       </c>
       <c r="E68" s="23">
         <f>[1]!ESP_eff_fr(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.46314866368431995</v>
+        <v>0.45764015433821842</v>
       </c>
       <c r="F68" s="16">
         <f>[1]!ESP_power_W(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>52534.109966525131</v>
+        <v>89683.724723050022</v>
       </c>
       <c r="G68" s="23">
         <f t="array" ref="G68:H68">[1]!ESP_dp_atm(C68,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8108,32 +8115,32 @@
       </c>
       <c r="J68" s="24">
         <f t="array" ref="J68:K68">[1]!ESP_dp_atm(C68,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>73.962053602862511</v>
+        <v>76.743668148634299</v>
       </c>
       <c r="K68" s="24">
         <v>0</v>
       </c>
       <c r="L68" s="24">
         <f t="shared" si="3"/>
-        <v>76.037946397137489</v>
+        <v>73.256331851365701</v>
       </c>
     </row>
     <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C69" s="6">
         <f t="shared" si="4"/>
-        <v>172.5</v>
+        <v>285</v>
       </c>
       <c r="D69" s="16">
         <f>[1]!ESP_head_m(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1131.3636706657694</v>
+        <v>1197.723294162008</v>
       </c>
       <c r="E69" s="23">
         <f>[1]!ESP_eff_fr(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.4096471967609201</v>
+        <v>0.41432634638111182</v>
       </c>
       <c r="F69" s="16">
         <f>[1]!ESP_power_W(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>53905.999014337751</v>
+        <v>93077.725128769918</v>
       </c>
       <c r="G69" s="23">
         <f t="array" ref="G69:H69">[1]!ESP_dp_atm(C69,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8148,32 +8155,32 @@
       </c>
       <c r="J69" s="24">
         <f t="array" ref="J69:K69">[1]!ESP_dp_atm(C69,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>56.066443484962051</v>
+        <v>62.948765484163985</v>
       </c>
       <c r="K69" s="24">
         <v>0</v>
       </c>
       <c r="L69" s="24">
         <f t="shared" si="3"/>
-        <v>93.933556515037949</v>
+        <v>87.051234515836015</v>
       </c>
     </row>
     <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C70" s="6">
         <f t="shared" si="4"/>
-        <v>184</v>
+        <v>304</v>
       </c>
       <c r="D70" s="16">
         <f>[1]!ESP_head_m(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>914.58639122531849</v>
+        <v>1009.480744051288</v>
       </c>
       <c r="E70" s="23">
         <f>[1]!ESP_eff_fr(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.34445369385694047</v>
+        <v>0.35999006769982811</v>
       </c>
       <c r="F70" s="16">
         <f>[1]!ESP_power_W(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>55049.642229903497</v>
+        <v>96346.153444634736</v>
       </c>
       <c r="G70" s="23">
         <f t="array" ref="G70:H70">[1]!ESP_dp_atm(C70,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8188,32 +8195,32 @@
       </c>
       <c r="J70" s="24">
         <f t="array" ref="J70:K70">[1]!ESP_dp_atm(C70,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>36.253213468122993</v>
+        <v>42.448868054443864</v>
       </c>
       <c r="K70" s="24">
         <v>0</v>
       </c>
       <c r="L70" s="24">
         <f t="shared" si="3"/>
-        <v>113.74678653187701</v>
+        <v>107.55113194555614</v>
       </c>
     </row>
     <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C71" s="6">
         <f t="shared" si="4"/>
-        <v>195.5</v>
+        <v>323</v>
       </c>
       <c r="D71" s="16">
         <f>[1]!ESP_head_m(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>689.80700444132776</v>
+        <v>800.26644027343752</v>
       </c>
       <c r="E71" s="23">
         <f>[1]!ESP_eff_fr(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.26927631675138031</v>
+        <v>0.29336424385681648</v>
       </c>
       <c r="F71" s="16">
         <f>[1]!ESP_power_W(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>55775.411320330881</v>
+        <v>99497.290361834501</v>
       </c>
       <c r="G71" s="23">
         <f t="array" ref="G71:H71">[1]!ESP_dp_atm(C71,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8228,32 +8235,32 @@
       </c>
       <c r="J71" s="24">
         <f t="array" ref="J71:K71">[1]!ESP_dp_atm(C71,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>16.599476785375032</v>
+        <v>18.774206398331586</v>
       </c>
       <c r="K71" s="24">
         <v>0</v>
       </c>
       <c r="L71" s="24">
         <f t="shared" si="3"/>
-        <v>133.40052321462497</v>
+        <v>131.22579360166841</v>
       </c>
     </row>
     <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C72" s="6">
         <f t="shared" si="4"/>
-        <v>207</v>
+        <v>342</v>
       </c>
       <c r="D72" s="16">
         <f>[1]!ESP_head_m(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>462.19406943367369</v>
+        <v>566.0453235139787</v>
       </c>
       <c r="E72" s="23">
         <f>[1]!ESP_eff_fr(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.18634137038169934</v>
+        <v>0.21266759536740198</v>
       </c>
       <c r="F72" s="16">
         <f>[1]!ESP_power_W(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>55833.791353696841</v>
+        <v>102544.42514979342</v>
       </c>
       <c r="G72" s="23">
         <f t="array" ref="G72:H72">[1]!ESP_dp_atm(C72,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8281,19 +8288,19 @@
     <row r="73" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C73" s="6">
         <f t="shared" si="4"/>
-        <v>218.5</v>
+        <v>361</v>
       </c>
       <c r="D73" s="16">
         <f>[1]!ESP_head_m(C73,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>237.30333077199134</v>
+        <v>300.65709046950894</v>
       </c>
       <c r="E73" s="23">
         <f>[1]!ESP_eff_fr(C73,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>9.8423288429019706E-2</v>
+        <v>0.11553372574483833</v>
       </c>
       <c r="F73" s="16">
         <f>[1]!ESP_power_W(C73,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>54908.217407477758</v>
+        <v>105505.41594154228</v>
       </c>
       <c r="G73" s="23">
         <f t="array" ref="G73:H73">[1]!ESP_dp_atm(C73,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
@@ -8321,19 +8328,19 @@
     <row r="74" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C74" s="6">
         <f t="shared" si="4"/>
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="D74" s="16">
         <f>[1]!ESP_head_m(C74,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>20.984120549215934</v>
+        <v>0</v>
       </c>
       <c r="E74" s="23">
         <f>[1]!ESP_eff_fr(C74,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>8.8746189033200862E-3</v>
+        <v>0</v>
       </c>
       <c r="F74" s="16">
         <f>[1]!ESP_power_W(C74,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>52607.911216981076</v>
+        <v>108402.25001909083</v>
       </c>
       <c r="G74" s="23">
         <f t="array" ref="G74:H74">[1]!ESP_dp_atm(C74,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
